--- a/demo-springcloud/表设计.xlsx
+++ b/demo-springcloud/表设计.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,242 +71,282 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>t_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000以下为系统内置字典，100000以上为外部添加字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:系统内置字典, 1:外部系统字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx_dsc_person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户口所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭住址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+  </si>
+  <si>
+    <t>yyyy-MM-dd HH:mm:ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>dictTypeCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增id</t>
+    <t>同种类型字典通过此字段获取, 不同类型字典的dictTypeCode不能相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于parentId值依赖数据提前入库才能获取, 字典父子关联关系由parentId改为用parentCode关联;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>household</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">school </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000以下为系统内置字典，100000以上为外部添加字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:系统内置字典, 1:外部系统字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典层级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>籍贯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx_dsc_person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户口所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>household</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婚姻状况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>education</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">school </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>occupation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭住址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>native</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(256)</t>
-  </si>
-  <si>
-    <t>yyyy-MM-dd HH:mm:ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,11 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -657,12 +697,12 @@
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1"/>
-    <col min="6" max="6" width="50.1640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="50.1640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,8 +718,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -691,11 +734,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -704,12 +747,12 @@
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1"/>
-    <col min="6" max="6" width="50.1640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="50.1640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,108 +768,128 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -838,11 +901,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -852,11 +915,12 @@
     <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.1640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="50.1640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,213 +936,238 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>70</v>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
